--- a/小玩意/小玩意/小玩意/bin/Debug/net8.0-windows/ini/配置文件.xlsx
+++ b/小玩意/小玩意/小玩意/bin/Debug/net8.0-windows/ini/配置文件.xlsx
@@ -8,13 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>设备名称</t>
   </si>
@@ -25,10 +30,10 @@
     <t>设备IP</t>
   </si>
   <si>
-    <t>端口号</t>
-  </si>
-  <si>
-    <t>波特率</t>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>设备型号</t>
   </si>
   <si>
     <t>PLC1</t>
@@ -37,34 +42,55 @@
     <t>S7</t>
   </si>
   <si>
-    <t>192.168.1.10</t>
-  </si>
-  <si>
-    <t>PLC2</t>
-  </si>
-  <si>
-    <t>192.168.1.11</t>
-  </si>
-  <si>
-    <t>PLC3</t>
-  </si>
-  <si>
-    <t>192.168.1.12</t>
-  </si>
-  <si>
-    <t>PLC4</t>
-  </si>
-  <si>
-    <t>192.168.1.13</t>
-  </si>
-  <si>
-    <t>PLC5</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>192.168.1.14</t>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>S71200</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>变量名称</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>DB地址</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>DB1.0.0</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>DB1.2</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>DB1.4</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>DB1.8</t>
+  </si>
+  <si>
+    <t>机器人名称</t>
+  </si>
+  <si>
+    <t>数据名称</t>
+  </si>
+  <si>
+    <t>所属程序</t>
   </si>
 </sst>
 </file>
@@ -999,17 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1029,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1039,53 +1063,208 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="18.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>